--- a/docs/EOP经常查询的订单单据字段明细.xlsx
+++ b/docs/EOP经常查询的订单单据字段明细.xlsx
@@ -5,28 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinqiang02/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinqiang02/colab/office/ai-knowledge-base/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2490C23-1877-4441-BD0D-E46FE662F791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D875535-130C-CD47-880F-7962BAB2CE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-1860" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="t_ocm_kbc_order_settle-tem" sheetId="1" r:id="rId1"/>
+    <sheet name="t_ocm_kbc_order_settle" sheetId="1" r:id="rId1"/>
     <sheet name="t_ocm_order_header" sheetId="2" r:id="rId2"/>
     <sheet name="t_ocm_order_lines" sheetId="3" r:id="rId3"/>
     <sheet name="t_ocm_tenant" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'t_ocm_kbc_order_settle-tem'!$A$2:$C$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">t_ocm_kbc_order_settle!$A$2:$C$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="338">
   <si>
     <t>字段ID</t>
   </si>
@@ -1104,10 +1104,6 @@
     <t>关联单据编号</t>
   </si>
   <si>
-    <t>如果forder_source='金蝶中国'，则本字段关联到[交易订单]的fthird_party_billno，然后用fproduct_serial_no关联到[交易订单]所包含的[产品订单]的fproduct_serial_no；
-如果forder_source='运营后台'，则本字段直接关联到[产品订单]的fproduct_billno</t>
-  </si>
-  <si>
     <t>[产品订单] 属于交易订单的明细，用于记录具体产品/权益信息</t>
   </si>
   <si>
@@ -1142,9 +1138,6 @@
   </si>
   <si>
     <t>[租户表] 记录客户的基本信息</t>
-  </si>
-  <si>
-    <t>租户编码，可以用这个编码去租户表查询[t_ocm_tenant]租户名称</t>
   </si>
   <si>
     <t>Add: 加购
@@ -1198,6 +1191,12 @@
   <si>
     <t>0: 禁用
 1: 可用</t>
+  </si>
+  <si>
+    <t>租户id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --&gt; t_ocm_tenant.fid</t>
   </si>
 </sst>
 </file>
@@ -1638,15 +1637,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="132" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="3" max="3" width="48" style="9" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1659,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
@@ -1692,16 +1691,14 @@
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="102">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>313</v>
-      </c>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="16">
       <c r="A7" s="2" t="s">
@@ -1958,7 +1955,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="95">
+    <row r="34" spans="1:3" ht="76">
       <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
@@ -1977,7 +1974,7 @@
         <v>65</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16">
@@ -1997,7 +1994,7 @@
         <v>69</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17">
@@ -2085,7 +2082,7 @@
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2107,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
@@ -2177,7 +2174,7 @@
         <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51">
@@ -2188,7 +2185,7 @@
         <v>203</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16">
@@ -2205,10 +2202,10 @@
         <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16">
@@ -2237,7 +2234,7 @@
         <v>211</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16">
@@ -2503,7 +2500,7 @@
         <v>262</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C44" s="2"/>
     </row>
@@ -2557,7 +2554,7 @@
         <v>273</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C50" s="2"/>
     </row>
@@ -2593,7 +2590,7 @@
         <v>279</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C54" s="2"/>
     </row>
@@ -2602,7 +2599,7 @@
         <v>280</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C55" s="2"/>
     </row>
@@ -2698,7 +2695,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2710,7 +2707,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -2718,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
@@ -2738,7 +2735,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -2846,7 +2843,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>115</v>
@@ -3081,7 +3078,7 @@
         <v>165</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -3213,7 +3210,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3225,7 +3222,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21">
@@ -3233,10 +3230,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19">
@@ -3255,7 +3252,7 @@
         <v>301</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -3275,10 +3272,10 @@
         <v>305</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19">
@@ -3295,7 +3292,7 @@
         <v>206</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -3304,7 +3301,7 @@
         <v>223</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C9" s="6"/>
     </row>
@@ -3340,7 +3337,7 @@
         <v>262</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C13" s="6"/>
     </row>
@@ -3349,7 +3346,7 @@
         <v>263</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C14" s="6"/>
     </row>
